--- a/docs/Visión_general_DEMO.xlsx
+++ b/docs/Visión_general_DEMO.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Enlaces" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Demografía" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Salud" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Defunciones" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Residencias" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t xml:space="preserve">Población total</t>
   </si>
@@ -305,20 +306,129 @@
   </si>
   <si>
     <t xml:space="preserve">    067  Otras enfermedades del sistema respiratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicadores Atención Residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Cobertura (nº de plazas/población&gt;=65)*100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros residenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviendas para mayores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas de financiación pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas de financiación privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas de financiación pública. Residencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas de financiación privada. Residencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazas de financiación pública.Viviendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de ocupación (usuarios/población&gt;=65)*100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de ocupación (usuarios/plazas)*100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros Residenciales. Tamaño medio de los centros (Nº medio de plazas por centro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviendas. Tamaño medio de los centros (Nº medio de plazas por centro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titularidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje Centros privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje plazas de financiación Privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuciones por edad y sexo. Centros Residenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de usuarios. Mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 65 a 79 sobre total 65 y +. Mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 año y más sobre total 65 y +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje usuarios de 80 años y más sobre total 65 y +. Mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio público anual. Centros Residenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio en euros por por año y usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportación promedio del usuario/a. €/año/Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportación promedio del usuario/a. Porcentaje sobre el precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de concentración anual. Centros Residenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio en euros por año y usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MMM\-YY"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -340,6 +450,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -424,7 +553,9 @@
       <left style="medium">
         <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="medium">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -437,9 +568,7 @@
       <left style="medium">
         <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -546,7 +675,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,8 +699,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -598,12 +738,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,39 +751,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,51 +799,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -715,6 +855,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,23 +867,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,27 +891,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -775,35 +919,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,43 +959,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,20 +1003,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="style1587133076076" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="style1587133076151" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="style1587133077649" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="style1587133077687" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="style1587133078185" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="style1587133078224" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 4" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133076076" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133076151" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133077649" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133077687" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133078185" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="style1587133078224" xfId="29" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -946,7 +1141,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G4:G34 C1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1121,7 +1316,7 @@
   <dimension ref="A2:M65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4:G34"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1577,8 +1772,8 @@
   </sheetPr>
   <dimension ref="A2:M65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4:G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1589,14 +1784,14 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1649,12 +1844,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="26" t="s">
         <v>39</v>
       </c>
@@ -1684,7 +1879,7 @@
       <c r="F5" s="20" t="n">
         <v>531.85</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="23" t="n">
@@ -1725,7 +1920,7 @@
       <c r="F6" s="20" t="n">
         <v>642.31</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="32" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="24" t="n">
@@ -1748,21 +1943,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="n">
@@ -1780,7 +1975,7 @@
       <c r="E8" s="20" t="n">
         <v>3.45</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="23"/>
@@ -1816,7 +2011,7 @@
       <c r="E9" s="20" t="n">
         <v>3.27</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="23"/>
@@ -1852,8 +2047,8 @@
       <c r="E10" s="20" t="n">
         <v>2.36</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="23"/>
@@ -1889,8 +2084,8 @@
       <c r="E11" s="20" t="n">
         <v>0.1</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="23"/>
@@ -1926,8 +2121,8 @@
       <c r="E12" s="20" t="n">
         <v>83.83</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="23"/>
@@ -1948,21 +2143,21 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="n">
@@ -1980,8 +2175,8 @@
       <c r="E14" s="20" t="n">
         <v>2.35</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="23"/>
@@ -2017,8 +2212,8 @@
       <c r="E15" s="20" t="n">
         <v>2.19</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="23"/>
@@ -2054,8 +2249,8 @@
       <c r="E16" s="20" t="n">
         <v>2.04</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="23"/>
@@ -2091,8 +2286,8 @@
       <c r="E17" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="23"/>
@@ -2128,8 +2323,8 @@
       <c r="E18" s="20" t="n">
         <v>48.37</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="31" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="23"/>
@@ -2150,265 +2345,265 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="37" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="n">
+      <c r="A20" s="39" t="n">
         <v>206</v>
       </c>
-      <c r="B20" s="38" t="n">
+      <c r="B20" s="39" t="n">
         <v>225</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="39" t="n">
         <v>246</v>
       </c>
-      <c r="D20" s="38" t="n">
+      <c r="D20" s="39" t="n">
         <v>184</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="39" t="n">
         <v>184</v>
       </c>
-      <c r="F20" s="38" t="n">
+      <c r="F20" s="39" t="n">
         <v>191</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="40" t="n">
+      <c r="H20" s="41" t="n">
         <v>177.739378363665</v>
       </c>
-      <c r="I20" s="41" t="n">
+      <c r="I20" s="42" t="n">
         <v>161.078081789188</v>
       </c>
-      <c r="J20" s="41" t="n">
+      <c r="J20" s="42" t="n">
         <v>154.96761134816</v>
       </c>
-      <c r="K20" s="41" t="n">
+      <c r="K20" s="42" t="n">
         <v>197.058901856521</v>
       </c>
-      <c r="L20" s="41" t="n">
+      <c r="L20" s="42" t="n">
         <v>174.964862051922</v>
       </c>
-      <c r="M20" s="42" t="n">
+      <c r="M20" s="43" t="n">
         <v>155.347274543693</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
+      <c r="A21" s="39" t="n">
         <v>259.445613770333</v>
       </c>
-      <c r="B21" s="38" t="n">
+      <c r="B21" s="39" t="n">
         <v>277.941680261741</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="39" t="n">
         <v>297.375992301744</v>
       </c>
-      <c r="D21" s="38" t="n">
+      <c r="D21" s="39" t="n">
         <v>216.5958120453</v>
       </c>
-      <c r="E21" s="38" t="n">
+      <c r="E21" s="39" t="n">
         <v>208.424372564396</v>
       </c>
-      <c r="F21" s="38" t="n">
+      <c r="F21" s="39" t="n">
         <v>204.697747636274</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="40" t="n">
+      <c r="H21" s="41" t="n">
         <v>302.536057120661</v>
       </c>
-      <c r="I21" s="41" t="n">
+      <c r="I21" s="42" t="n">
         <v>294.40097690633</v>
       </c>
-      <c r="J21" s="41" t="n">
+      <c r="J21" s="42" t="n">
         <v>296.620559881345</v>
       </c>
-      <c r="K21" s="41" t="n">
+      <c r="K21" s="42" t="n">
         <v>327.171807439264</v>
       </c>
-      <c r="L21" s="41" t="n">
+      <c r="L21" s="42" t="n">
         <v>297.962914026375</v>
       </c>
-      <c r="M21" s="42" t="n">
+      <c r="M21" s="43" t="n">
         <v>280.141712309763</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
+      <c r="A22" s="39" t="n">
         <v>155.347274543693</v>
       </c>
-      <c r="B22" s="38" t="n">
+      <c r="B22" s="39" t="n">
         <v>174.964862051922</v>
       </c>
-      <c r="C22" s="38" t="n">
+      <c r="C22" s="39" t="n">
         <v>197.058901856521</v>
       </c>
-      <c r="D22" s="38" t="n">
+      <c r="D22" s="39" t="n">
         <v>154.96761134816</v>
       </c>
-      <c r="E22" s="38" t="n">
+      <c r="E22" s="39" t="n">
         <v>161.078081789188</v>
       </c>
-      <c r="F22" s="38" t="n">
+      <c r="F22" s="39" t="n">
         <v>177.739378363665</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="40" t="n">
+      <c r="H22" s="41" t="n">
         <v>242.736700122497</v>
       </c>
-      <c r="I22" s="41" t="n">
+      <c r="I22" s="42" t="n">
         <v>226.210713801908</v>
       </c>
-      <c r="J22" s="41" t="n">
+      <c r="J22" s="42" t="n">
         <v>219.635365221104</v>
       </c>
-      <c r="K22" s="41" t="n">
+      <c r="K22" s="42" t="n">
         <v>230.320405023504</v>
       </c>
-      <c r="L22" s="41" t="n">
+      <c r="L22" s="42" t="n">
         <v>201.854481666059</v>
       </c>
-      <c r="M22" s="42" t="n">
+      <c r="M22" s="43" t="n">
         <v>187.273722891424</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="n">
+      <c r="A23" s="39" t="n">
         <v>9904</v>
       </c>
-      <c r="B23" s="38" t="n">
+      <c r="B23" s="39" t="n">
         <v>10165</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="39" t="n">
         <v>10330</v>
       </c>
-      <c r="D23" s="38" t="n">
+      <c r="D23" s="39" t="n">
         <v>9944</v>
       </c>
-      <c r="E23" s="38" t="n">
+      <c r="E23" s="39" t="n">
         <v>9944</v>
       </c>
-      <c r="F23" s="38" t="n">
+      <c r="F23" s="39" t="n">
         <v>10194</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="40" t="n">
+      <c r="H23" s="41" t="n">
         <v>10486</v>
       </c>
-      <c r="I23" s="41" t="n">
+      <c r="I23" s="42" t="n">
         <v>10449</v>
       </c>
-      <c r="J23" s="41" t="n">
+      <c r="J23" s="42" t="n">
         <v>10449</v>
       </c>
-      <c r="K23" s="41" t="n">
+      <c r="K23" s="42" t="n">
         <v>10228</v>
       </c>
-      <c r="L23" s="41" t="n">
+      <c r="L23" s="42" t="n">
         <v>10160</v>
       </c>
-      <c r="M23" s="42" t="n">
+      <c r="M23" s="43" t="n">
         <v>9953</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="n">
+      <c r="A24" s="39" t="n">
         <v>9696.38908332016</v>
       </c>
-      <c r="B24" s="38" t="n">
+      <c r="B24" s="39" t="n">
         <v>10086.1095063113</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="39" t="n">
         <v>10234.5735086396</v>
       </c>
-      <c r="D24" s="38" t="n">
+      <c r="D24" s="39" t="n">
         <v>9903.53534099812</v>
       </c>
-      <c r="E24" s="38" t="n">
+      <c r="E24" s="39" t="n">
         <v>9823.10063182518</v>
       </c>
-      <c r="F24" s="38" t="n">
+      <c r="F24" s="39" t="n">
         <v>10186.1834349623</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="40" t="n">
+      <c r="H24" s="41" t="n">
         <v>10253.1903454675</v>
       </c>
-      <c r="I24" s="41" t="n">
+      <c r="I24" s="42" t="n">
         <v>10159.8057028344</v>
       </c>
-      <c r="J24" s="41" t="n">
+      <c r="J24" s="42" t="n">
         <v>10072.9790089495</v>
       </c>
-      <c r="K24" s="41" t="n">
+      <c r="K24" s="42" t="n">
         <v>9845.80218412039</v>
       </c>
-      <c r="L24" s="41" t="n">
+      <c r="L24" s="42" t="n">
         <v>9736.26603850209</v>
       </c>
-      <c r="M24" s="42" t="n">
+      <c r="M24" s="43" t="n">
         <v>9531.81663788627</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="n">
+      <c r="A25" s="39" t="n">
         <v>10100.8993394416</v>
       </c>
-      <c r="B25" s="38" t="n">
+      <c r="B25" s="39" t="n">
         <v>10243.4580878413</v>
       </c>
-      <c r="C25" s="38" t="n">
+      <c r="C25" s="39" t="n">
         <v>10422.0029420648</v>
       </c>
-      <c r="D25" s="38" t="n">
+      <c r="D25" s="39" t="n">
         <v>10171.3882520014</v>
       </c>
-      <c r="E25" s="38" t="n">
+      <c r="E25" s="39" t="n">
         <v>10058.8049738584</v>
       </c>
-      <c r="F25" s="38" t="n">
+      <c r="F25" s="39" t="n">
         <v>10200.6947582625</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="40" t="n">
+      <c r="H25" s="41" t="n">
         <v>10709.8347638379</v>
       </c>
-      <c r="I25" s="41" t="n">
+      <c r="I25" s="42" t="n">
         <v>10728.0976307389</v>
       </c>
-      <c r="J25" s="41" t="n">
+      <c r="J25" s="42" t="n">
         <v>10774.81230015</v>
       </c>
-      <c r="K25" s="41" t="n">
+      <c r="K25" s="42" t="n">
         <v>10596.3524029758</v>
       </c>
-      <c r="L25" s="41" t="n">
+      <c r="L25" s="42" t="n">
         <v>10569.0943928403</v>
       </c>
-      <c r="M25" s="42" t="n">
+      <c r="M25" s="43" t="n">
         <v>10361.2733336053</v>
       </c>
     </row>
@@ -2431,7 +2626,7 @@
       <c r="F26" s="20" t="n">
         <v>7.89</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="23" t="n">
@@ -2472,7 +2667,7 @@
       <c r="F27" s="20" t="n">
         <v>8.21</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="40" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="23" t="n">
@@ -2513,7 +2708,7 @@
       <c r="F28" s="20" t="n">
         <v>7.53</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="40" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="23" t="n">
@@ -2554,7 +2749,7 @@
       <c r="F29" s="20" t="n">
         <v>8.3</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="40" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="23" t="n">
@@ -2595,7 +2790,7 @@
       <c r="F30" s="20" t="n">
         <v>8.65</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="23" t="n">
@@ -2636,7 +2831,7 @@
       <c r="F31" s="20" t="n">
         <v>7.98</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H31" s="23" t="n">
@@ -2682,931 +2877,2355 @@
   </sheetPr>
   <dimension ref="A2:O65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4:G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="49.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="49.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="n">
+      <c r="A3" s="45" t="n">
         <v>43466</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="B3" s="48" t="n">
         <v>43497</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="48" t="n">
         <v>43525</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="48" t="n">
         <v>43556</v>
       </c>
-      <c r="E3" s="47" t="n">
+      <c r="E3" s="48" t="n">
         <v>43586</v>
       </c>
-      <c r="F3" s="48" t="n">
+      <c r="F3" s="49" t="n">
         <v>43617</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="49" t="n">
+      <c r="G3" s="46"/>
+      <c r="H3" s="50" t="n">
         <v>43617</v>
       </c>
-      <c r="I3" s="50" t="n">
+      <c r="I3" s="51" t="n">
         <v>43586</v>
       </c>
-      <c r="J3" s="50" t="n">
+      <c r="J3" s="51" t="n">
         <v>43556</v>
       </c>
-      <c r="K3" s="50" t="n">
+      <c r="K3" s="51" t="n">
         <v>43525</v>
       </c>
-      <c r="L3" s="50" t="n">
+      <c r="L3" s="51" t="n">
         <v>43497</v>
       </c>
-      <c r="M3" s="51" t="n">
+      <c r="M3" s="52" t="n">
         <v>43466</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="n">
+      <c r="A5" s="59" t="n">
         <v>117.536130901811</v>
       </c>
-      <c r="B5" s="59" t="n">
+      <c r="B5" s="60" t="n">
         <v>92.1043364961562</v>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="60" t="n">
         <v>83.1688411644396</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="60" t="n">
         <v>83.856186959187</v>
       </c>
-      <c r="E5" s="59" t="n">
+      <c r="E5" s="60" t="n">
         <v>86.4337336894899</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="60" t="n">
         <v>78.1855841525207</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="60" t="n">
+      <c r="H5" s="61" t="n">
         <v>63.3243087955602</v>
       </c>
-      <c r="I5" s="61" t="n">
+      <c r="I5" s="62" t="n">
         <v>70.553547427924</v>
       </c>
-      <c r="J5" s="61" t="n">
+      <c r="J5" s="62" t="n">
         <v>71.6660646212746</v>
       </c>
-      <c r="K5" s="61" t="n">
+      <c r="K5" s="62" t="n">
         <v>78.0545459853811</v>
       </c>
-      <c r="L5" s="61" t="n">
+      <c r="L5" s="62" t="n">
         <v>79.5662105687124</v>
       </c>
-      <c r="M5" s="62" t="n">
+      <c r="M5" s="63" t="n">
         <v>94.3219252515107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="n">
+      <c r="A6" s="59" t="n">
         <v>54.9876635797948</v>
       </c>
-      <c r="B6" s="59" t="n">
+      <c r="B6" s="60" t="n">
         <v>47.0831869401993</v>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="60" t="n">
         <v>41.7562570309066</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="60" t="n">
         <v>40.8970747874723</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="60" t="n">
         <v>42.7872757230278</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="60" t="n">
         <v>42.6154392743409</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="61" t="n">
+      <c r="H6" s="62" t="n">
         <v>32.3309385884393</v>
       </c>
-      <c r="I6" s="61" t="n">
+      <c r="I6" s="62" t="n">
         <v>35.7852620113045</v>
       </c>
-      <c r="J6" s="61" t="n">
+      <c r="J6" s="62" t="n">
         <v>36.6005417865843</v>
       </c>
-      <c r="K6" s="61" t="n">
+      <c r="K6" s="62" t="n">
         <v>39.6153784555877</v>
       </c>
-      <c r="L6" s="61" t="n">
+      <c r="L6" s="62" t="n">
         <v>40.0633577071086</v>
       </c>
-      <c r="M6" s="62" t="n">
+      <c r="M6" s="63" t="n">
         <v>47.0548064050158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="n">
+      <c r="A7" s="59" t="n">
         <v>62.5484673220165</v>
       </c>
-      <c r="B7" s="59" t="n">
+      <c r="B7" s="60" t="n">
         <v>45.021149555957</v>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="60" t="n">
         <v>41.4125841335329</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="60" t="n">
         <v>42.9591121717147</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="60" t="n">
         <v>43.6464579664621</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="60" t="n">
         <v>35.5701448781797</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="61" t="n">
+      <c r="H7" s="62" t="n">
         <v>30.9933702071209</v>
       </c>
-      <c r="I7" s="61" t="n">
+      <c r="I7" s="62" t="n">
         <v>34.7682854166195</v>
       </c>
-      <c r="J7" s="61" t="n">
+      <c r="J7" s="62" t="n">
         <v>35.0655228346903</v>
       </c>
-      <c r="K7" s="61" t="n">
+      <c r="K7" s="62" t="n">
         <v>38.4391675297934</v>
       </c>
-      <c r="L7" s="61" t="n">
+      <c r="L7" s="62" t="n">
         <v>39.5028528616038</v>
       </c>
-      <c r="M7" s="62" t="n">
+      <c r="M7" s="63" t="n">
         <v>47.2671188464949</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="n">
+      <c r="A8" s="59" t="n">
         <v>112.835311036406</v>
       </c>
-      <c r="B8" s="59" t="n">
+      <c r="B8" s="60" t="n">
         <v>96.6152350749227</v>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="60" t="n">
         <v>85.6843143182708</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="60" t="n">
         <v>83.921262583327</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="60" t="n">
         <v>87.7999764002034</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="60" t="n">
         <v>87.4473660532147</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="62" t="n">
         <v>65.9523723700538</v>
       </c>
-      <c r="I8" s="61" t="n">
+      <c r="I8" s="62" t="n">
         <v>72.9988991526962</v>
       </c>
-      <c r="J8" s="61" t="n">
+      <c r="J8" s="62" t="n">
         <v>74.6620007412239</v>
       </c>
-      <c r="K8" s="61" t="n">
+      <c r="K8" s="62" t="n">
         <v>80.8120118238005</v>
       </c>
-      <c r="L8" s="61" t="n">
+      <c r="L8" s="62" t="n">
         <v>81.7258514987467</v>
       </c>
-      <c r="M8" s="62" t="n">
+      <c r="M8" s="63" t="n">
         <v>95.9878138191163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="n">
+      <c r="A9" s="59" t="n">
         <v>122.004542542959</v>
       </c>
-      <c r="B9" s="59" t="n">
+      <c r="B9" s="60" t="n">
         <v>87.8164564457561</v>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="60" t="n">
         <v>80.7777328375084</v>
       </c>
-      <c r="D9" s="59" t="n">
+      <c r="D9" s="60" t="n">
         <v>83.7943286696146</v>
       </c>
-      <c r="E9" s="59" t="n">
+      <c r="E9" s="60" t="n">
         <v>85.1350379283284</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="60" t="n">
         <v>69.3817041384409</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="61" t="n">
+      <c r="H9" s="62" t="n">
         <v>60.797118474488</v>
       </c>
-      <c r="I9" s="61" t="n">
+      <c r="I9" s="62" t="n">
         <v>68.2020559075364</v>
       </c>
-      <c r="J9" s="61" t="n">
+      <c r="J9" s="62" t="n">
         <v>68.7851218471465</v>
       </c>
-      <c r="K9" s="61" t="n">
+      <c r="K9" s="62" t="n">
         <v>75.4029202617212</v>
       </c>
-      <c r="L9" s="61" t="n">
+      <c r="L9" s="62" t="n">
         <v>77.4894633741831</v>
       </c>
-      <c r="M9" s="62" t="n">
+      <c r="M9" s="63" t="n">
         <v>92.7199786681413</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="n">
+      <c r="A11" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="B11" s="63" t="n">
+      <c r="B11" s="64" t="n">
         <v>1.54652803818173</v>
       </c>
-      <c r="C11" s="63" t="n">
+      <c r="C11" s="64" t="n">
         <v>1.20285514080801</v>
       </c>
-      <c r="D11" s="63" t="n">
+      <c r="D11" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="E11" s="63" t="n">
+      <c r="E11" s="64" t="n">
         <v>0.859182243434293</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="61" t="n">
+      <c r="K11" s="62" t="n">
         <v>1.09128594920264</v>
       </c>
-      <c r="L11" s="61" t="n">
+      <c r="L11" s="62" t="n">
         <v>1.21867341409011</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="n">
+      <c r="A12" s="64" t="n">
         <v>24.2289392648471</v>
       </c>
-      <c r="B12" s="63" t="n">
+      <c r="B12" s="64" t="n">
         <v>18.3865000094939</v>
       </c>
-      <c r="C12" s="63" t="n">
+      <c r="C12" s="64" t="n">
         <v>21.6513925345442</v>
       </c>
-      <c r="D12" s="63" t="n">
+      <c r="D12" s="64" t="n">
         <v>19.7611915989887</v>
       </c>
-      <c r="E12" s="63" t="n">
+      <c r="E12" s="64" t="n">
         <v>23.7134299187865</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="61" t="n">
+      <c r="K12" s="62" t="n">
         <v>19.5072671231009</v>
       </c>
-      <c r="L12" s="61" t="n">
+      <c r="L12" s="62" t="n">
         <v>18.7578042046796</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="n">
+      <c r="A13" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="B13" s="63" t="n">
+      <c r="B13" s="64" t="n">
         <v>1.54652803818173</v>
       </c>
-      <c r="C13" s="63" t="n">
+      <c r="C13" s="64" t="n">
         <v>0.687345794747434</v>
       </c>
-      <c r="D13" s="63" t="n">
+      <c r="D13" s="64" t="n">
         <v>0.687345794747434</v>
       </c>
-      <c r="E13" s="63" t="n">
+      <c r="E13" s="64" t="n">
         <v>1.89020093555544</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="61" t="n">
+      <c r="K13" s="62" t="n">
         <v>0.33757678195179</v>
       </c>
-      <c r="L13" s="61" t="n">
+      <c r="L13" s="62" t="n">
         <v>0.305729915729923</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="n">
+      <c r="A14" s="64" t="n">
         <v>4.46774766585832</v>
       </c>
-      <c r="B14" s="63" t="n">
+      <c r="B14" s="64" t="n">
         <v>2.57754673030288</v>
       </c>
-      <c r="C14" s="63" t="n">
+      <c r="C14" s="64" t="n">
         <v>2.23387383292916</v>
       </c>
-      <c r="D14" s="63" t="n">
+      <c r="D14" s="64" t="n">
         <v>2.23387383292916</v>
       </c>
-      <c r="E14" s="63" t="n">
+      <c r="E14" s="64" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="61" t="n">
+      <c r="K14" s="62" t="n">
         <v>2.3927612154696</v>
       </c>
-      <c r="L14" s="61" t="n">
+      <c r="L14" s="62" t="n">
         <v>2.55411867099373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="n">
+      <c r="A15" s="64" t="n">
         <v>11.3412056133327</v>
       </c>
-      <c r="B15" s="63" t="n">
+      <c r="B15" s="64" t="n">
         <v>8.07631308828235</v>
       </c>
-      <c r="C15" s="63" t="n">
+      <c r="C15" s="64" t="n">
         <v>6.87345794747434</v>
       </c>
-      <c r="D15" s="63" t="n">
+      <c r="D15" s="64" t="n">
         <v>7.9044766395955</v>
       </c>
-      <c r="E15" s="63" t="n">
+      <c r="E15" s="64" t="n">
         <v>8.76365888302979</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="61" t="n">
+      <c r="K15" s="62" t="n">
         <v>3.98722765097774</v>
       </c>
-      <c r="L15" s="61" t="n">
+      <c r="L15" s="62" t="n">
         <v>4.29508069112246</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="n">
+      <c r="A16" s="64" t="n">
         <v>7.73264019090864</v>
       </c>
-      <c r="B16" s="63" t="n">
+      <c r="B16" s="64" t="n">
         <v>7.38896729353492</v>
       </c>
-      <c r="C16" s="63" t="n">
+      <c r="C16" s="64" t="n">
         <v>3.78040187111089</v>
       </c>
-      <c r="D16" s="63" t="n">
+      <c r="D16" s="64" t="n">
         <v>4.9832570119189</v>
       </c>
-      <c r="E16" s="63" t="n">
+      <c r="E16" s="64" t="n">
         <v>3.09305607636345</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="61" t="n">
+      <c r="K16" s="62" t="n">
         <v>4.55197874531218</v>
       </c>
-      <c r="L16" s="61" t="n">
+      <c r="L16" s="62" t="n">
         <v>4.929894891145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63" t="n">
+      <c r="A17" s="64" t="n">
         <v>30.7587243149477</v>
       </c>
-      <c r="B17" s="63" t="n">
+      <c r="B17" s="64" t="n">
         <v>26.2909766490894</v>
       </c>
-      <c r="C17" s="63" t="n">
+      <c r="C17" s="64" t="n">
         <v>22.6824112266653</v>
       </c>
-      <c r="D17" s="63" t="n">
+      <c r="D17" s="64" t="n">
         <v>25.4317944056551</v>
       </c>
-      <c r="E17" s="63" t="n">
+      <c r="E17" s="64" t="n">
         <v>20.9640467397967</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="61" t="n">
+      <c r="K17" s="62" t="n">
         <v>20.9828385913807</v>
       </c>
-      <c r="L17" s="61" t="n">
+      <c r="L17" s="62" t="n">
         <v>21.7875027445866</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="n">
+      <c r="A18" s="64" t="n">
         <v>18.0428271121202</v>
       </c>
-      <c r="B18" s="63" t="n">
+      <c r="B18" s="64" t="n">
         <v>10.8256962672721</v>
       </c>
-      <c r="C18" s="63" t="n">
+      <c r="C18" s="64" t="n">
         <v>7.0452943961612</v>
       </c>
-      <c r="D18" s="63" t="n">
+      <c r="D18" s="64" t="n">
         <v>5.67060280666633</v>
       </c>
-      <c r="E18" s="63" t="n">
+      <c r="E18" s="64" t="n">
         <v>6.01427570404005</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="61" t="n">
+      <c r="K18" s="62" t="n">
         <v>9.71117107325463</v>
       </c>
-      <c r="L18" s="61" t="n">
+      <c r="L18" s="62" t="n">
         <v>12.1251635328721</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="n">
+      <c r="A19" s="64" t="n">
         <v>5.15509346060576</v>
       </c>
-      <c r="B19" s="63" t="n">
+      <c r="B19" s="64" t="n">
         <v>5.32692990929262</v>
       </c>
-      <c r="C19" s="63" t="n">
+      <c r="C19" s="64" t="n">
         <v>4.29591121717147</v>
       </c>
-      <c r="D19" s="63" t="n">
+      <c r="D19" s="64" t="n">
         <v>3.95223831979775</v>
       </c>
-      <c r="E19" s="63" t="n">
+      <c r="E19" s="64" t="n">
         <v>4.46774766585832</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="61" t="n">
+      <c r="K19" s="62" t="n">
         <v>3.81100832455008</v>
       </c>
-      <c r="L19" s="61" t="n">
+      <c r="L19" s="62" t="n">
         <v>3.781284582743</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="n">
+      <c r="A20" s="64" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="B20" s="63" t="n">
+      <c r="B20" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="63" t="n">
+      <c r="C20" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="63" t="n">
+      <c r="D20" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="E20" s="63" t="n">
+      <c r="E20" s="64" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="61" t="n">
+      <c r="K20" s="62" t="n">
         <v>0.371546772588448</v>
       </c>
-      <c r="L20" s="61" t="n">
+      <c r="L20" s="62" t="n">
         <v>0.292991169241176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="n">
+      <c r="A21" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="B21" s="63" t="n">
+      <c r="B21" s="64" t="n">
         <v>1.03101869212115</v>
       </c>
-      <c r="C21" s="63" t="n">
+      <c r="C21" s="64" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="D21" s="63" t="n">
+      <c r="D21" s="64" t="n">
         <v>1.54652803818173</v>
       </c>
-      <c r="E21" s="63" t="n">
+      <c r="E21" s="64" t="n">
         <v>0.687345794747434</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="61" t="n">
+      <c r="K21" s="62" t="n">
         <v>0.94054411575247</v>
       </c>
-      <c r="L21" s="61" t="n">
+      <c r="L21" s="62" t="n">
         <v>0.90232787628623</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="n">
+      <c r="A22" s="64" t="n">
         <v>3.26489252505031</v>
       </c>
-      <c r="B22" s="63" t="n">
+      <c r="B22" s="64" t="n">
         <v>2.40571028161602</v>
       </c>
-      <c r="C22" s="63" t="n">
+      <c r="C22" s="64" t="n">
         <v>2.23387383292916</v>
       </c>
-      <c r="D22" s="63" t="n">
+      <c r="D22" s="64" t="n">
         <v>2.74938317898974</v>
       </c>
-      <c r="E22" s="63" t="n">
+      <c r="E22" s="64" t="n">
         <v>3.43672897373717</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="61" t="n">
+      <c r="K22" s="62" t="n">
         <v>2.56473429306768</v>
       </c>
-      <c r="L22" s="61" t="n">
+      <c r="L22" s="62" t="n">
         <v>2.52227180477186</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="n">
+      <c r="A23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="B23" s="63" t="n">
+      <c r="B23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="63" t="n">
+      <c r="C23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="63" t="n">
+      <c r="D23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="63" t="n">
+      <c r="E23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="61" t="n">
+      <c r="K23" s="62" t="n">
         <v>0.00212312441479113</v>
       </c>
-      <c r="L23" s="61" t="n">
+      <c r="L23" s="62" t="n">
         <v>0.00212312441479113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="n">
+      <c r="A24" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="B24" s="63" t="n">
+      <c r="B24" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="63" t="n">
+      <c r="C24" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="D24" s="63" t="n">
+      <c r="D24" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="63" t="n">
+      <c r="E24" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="61" t="n">
+      <c r="K24" s="62" t="n">
         <v>0.0530781103697782</v>
       </c>
-      <c r="L24" s="61" t="n">
+      <c r="L24" s="62" t="n">
         <v>0.0594474836141516</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63" t="n">
+      <c r="A25" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="B25" s="63" t="n">
+      <c r="B25" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="63" t="n">
+      <c r="C25" s="64" t="n">
         <v>0.515509346060576</v>
       </c>
-      <c r="D25" s="63" t="n">
+      <c r="D25" s="64" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="E25" s="63" t="n">
+      <c r="E25" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="61" t="n">
+      <c r="K25" s="62" t="n">
         <v>0.154988082279753</v>
       </c>
-      <c r="L25" s="61" t="n">
+      <c r="L25" s="62" t="n">
         <v>0.165603704353708</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63" t="n">
+      <c r="A26" s="64" t="n">
         <v>1.89020093555544</v>
       </c>
-      <c r="B26" s="63" t="n">
+      <c r="B26" s="64" t="n">
         <v>2.23387383292916</v>
       </c>
-      <c r="C26" s="63" t="n">
+      <c r="C26" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="D26" s="63" t="n">
+      <c r="D26" s="64" t="n">
         <v>0.515509346060576</v>
       </c>
-      <c r="E26" s="63" t="n">
+      <c r="E26" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="61" t="n">
+      <c r="K26" s="62" t="n">
         <v>1.8662263606014</v>
       </c>
-      <c r="L26" s="61" t="n">
+      <c r="L26" s="62" t="n">
         <v>2.10401629505801</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63" t="n">
+      <c r="A27" s="64" t="n">
         <v>2.9212196276766</v>
       </c>
-      <c r="B27" s="63" t="n">
+      <c r="B27" s="64" t="n">
         <v>2.9212196276766</v>
       </c>
-      <c r="C27" s="63" t="n">
+      <c r="C27" s="64" t="n">
         <v>3.95223831979775</v>
       </c>
-      <c r="D27" s="63" t="n">
+      <c r="D27" s="64" t="n">
         <v>2.40571028161602</v>
       </c>
-      <c r="E27" s="63" t="n">
+      <c r="E27" s="64" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="61" t="n">
+      <c r="K27" s="62" t="n">
         <v>2.30995936329275</v>
       </c>
-      <c r="L27" s="61" t="n">
+      <c r="L27" s="62" t="n">
         <v>2.38214559339565</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="63" t="n">
+      <c r="A29" s="64" t="n">
         <v>3.43672897373717</v>
       </c>
-      <c r="B29" s="63" t="n">
+      <c r="B29" s="64" t="n">
         <v>1.89020093555544</v>
       </c>
-      <c r="C29" s="63" t="n">
+      <c r="C29" s="64" t="n">
         <v>1.03101869212115</v>
       </c>
-      <c r="D29" s="63" t="n">
+      <c r="D29" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="63" t="n">
+      <c r="E29" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="61" t="n">
+      <c r="K29" s="62" t="n">
         <v>0.605090458215472</v>
       </c>
-      <c r="L29" s="61" t="n">
+      <c r="L29" s="62" t="n">
         <v>1.32695275924446</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="63" t="n">
+      <c r="A30" s="64" t="n">
         <v>3.95223831979775</v>
       </c>
-      <c r="B30" s="63" t="n">
+      <c r="B30" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="C30" s="63" t="n">
+      <c r="C30" s="64" t="n">
         <v>2.0620373842423</v>
       </c>
-      <c r="D30" s="63" t="n">
+      <c r="D30" s="64" t="n">
         <v>1.20285514080801</v>
       </c>
-      <c r="E30" s="63" t="n">
+      <c r="E30" s="64" t="n">
         <v>1.54652803818173</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="61" t="n">
+      <c r="K30" s="62" t="n">
         <v>1.98936757665929</v>
       </c>
-      <c r="L30" s="61" t="n">
+      <c r="L30" s="62" t="n">
         <v>2.36516059807732</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="63" t="n">
+      <c r="A31" s="64" t="n">
         <v>5.32692990929262</v>
       </c>
-      <c r="B31" s="63" t="n">
+      <c r="B31" s="64" t="n">
         <v>3.26489252505031</v>
       </c>
-      <c r="C31" s="63" t="n">
+      <c r="C31" s="64" t="n">
         <v>1.37469158949487</v>
       </c>
-      <c r="D31" s="63" t="n">
+      <c r="D31" s="64" t="n">
         <v>2.74938317898974</v>
       </c>
-      <c r="E31" s="63" t="n">
+      <c r="E31" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="61" t="n">
+      <c r="K31" s="62" t="n">
         <v>2.53925680009019</v>
       </c>
-      <c r="L31" s="61" t="n">
+      <c r="L31" s="62" t="n">
         <v>2.93628106565613</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63" t="n">
+      <c r="A32" s="64" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="B32" s="63" t="n">
+      <c r="B32" s="64" t="n">
         <v>0.687345794747434</v>
       </c>
-      <c r="C32" s="63" t="n">
+      <c r="C32" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="D32" s="63" t="n">
+      <c r="D32" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="63" t="n">
+      <c r="E32" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="61" t="n">
+      <c r="K32" s="62" t="n">
         <v>0.208066192649531</v>
       </c>
-      <c r="L32" s="61" t="n">
+      <c r="L32" s="62" t="n">
         <v>0.265390551848891</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63" t="n">
+      <c r="A33" s="64" t="n">
         <v>1.03101869212115</v>
       </c>
-      <c r="B33" s="63" t="n">
+      <c r="B33" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="C33" s="63" t="n">
+      <c r="C33" s="64" t="n">
         <v>0.343672897373717</v>
       </c>
-      <c r="D33" s="63" t="n">
+      <c r="D33" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E33" s="63" t="n">
+      <c r="E33" s="64" t="n">
         <v>0.171836448686859</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="61" t="n">
+      <c r="K33" s="62" t="n">
         <v>0.441609878276555</v>
       </c>
-      <c r="L33" s="61" t="n">
+      <c r="L33" s="62" t="n">
         <v>0.471333620083631</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63" t="n">
+      <c r="A34" s="64" t="n">
         <v>3.95223831979775</v>
       </c>
-      <c r="B34" s="63" t="n">
+      <c r="B34" s="64" t="n">
         <v>3.09305607636345</v>
       </c>
-      <c r="C34" s="63" t="n">
+      <c r="C34" s="64" t="n">
         <v>2.0620373842423</v>
       </c>
-      <c r="D34" s="63" t="n">
+      <c r="D34" s="64" t="n">
         <v>1.71836448686859</v>
       </c>
-      <c r="E34" s="63" t="n">
+      <c r="E34" s="64" t="n">
         <v>2.57754673030288</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="61" t="n">
+      <c r="K34" s="62" t="n">
         <v>3.92778016736359</v>
       </c>
-      <c r="L34" s="61" t="n">
+      <c r="L34" s="62" t="n">
         <v>4.76004493796171</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:M65536"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="67" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="68" width="69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="2" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="69" width="9.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="2" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="n">
+        <v>4.78162812036394</v>
+      </c>
+      <c r="B5" s="20" t="n">
+        <v>4.71866727367764</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <v>4.68530596983923</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>4.63044029685876</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>4.85367537283483</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>4.80168330798389</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="24" t="n">
+        <v>4.32302514030024</v>
+      </c>
+      <c r="I5" s="24" t="n">
+        <v>4.34291021784431</v>
+      </c>
+      <c r="J5" s="24" t="n">
+        <v>4.38857881445936</v>
+      </c>
+      <c r="K5" s="24" t="n">
+        <v>4.40455062860192</v>
+      </c>
+      <c r="L5" s="24" t="n">
+        <v>4.40775205461638</v>
+      </c>
+      <c r="M5" s="24" t="n">
+        <v>4.51860584639938</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="n">
+        <v>4.75332938866164</v>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>4.69084593724181</v>
+      </c>
+      <c r="C6" s="20" t="n">
+        <v>4.65788708404304</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>4.6034382594323</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>4.82718764548184</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>4.7756771453114</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="24" t="n">
+        <v>4.20909538649098</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>4.22746538535326</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>4.27637238932366</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>4.30028512174993</v>
+      </c>
+      <c r="L6" s="24" t="n">
+        <v>4.30392635396493</v>
+      </c>
+      <c r="M6" s="24" t="n">
+        <v>4.39522900227624</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="n">
+        <v>0.0282987317022973</v>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>0.0278213364358339</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>0.0274188857961863</v>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>0.0270020374264604</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>0.0264877273529931</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>0.0260061626724878</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="24" t="n">
+        <v>0.113929753809254</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>0.115444832491052</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>0.1122064251357</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>0.104265506851989</v>
+      </c>
+      <c r="L7" s="24" t="n">
+        <v>0.103825700651447</v>
+      </c>
+      <c r="M7" s="24" t="n">
+        <v>0.123376844123141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <v>3.35811616200595</v>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>3.3545787175207</v>
+      </c>
+      <c r="C8" s="20" t="n">
+        <v>3.30272942544971</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>3.51435608323173</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>3.53009166358981</v>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>3.33351721529162</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="24" t="n">
+        <v>2.56350228257053</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>2.45445996593457</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>2.46528948892563</v>
+      </c>
+      <c r="K8" s="24" t="n">
+        <v>2.45474984421391</v>
+      </c>
+      <c r="L8" s="24" t="n">
+        <v>2.05612676019377</v>
+      </c>
+      <c r="M8" s="24" t="n">
+        <v>2.0831924279594</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
+        <v>1.42351195835799</v>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1.36408855615695</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>1.38257654438951</v>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>1.11608421362703</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>1.32358370924502</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>1.46816609269227</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="24" t="n">
+        <v>1.75257686420969</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>1.85402110943113</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>1.91611240450359</v>
+      </c>
+      <c r="K9" s="24" t="n">
+        <v>1.94980078438801</v>
+      </c>
+      <c r="L9" s="24" t="n">
+        <v>2.35162529442261</v>
+      </c>
+      <c r="M9" s="24" t="n">
+        <v>2.44959180576865</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
+        <v>3.32981743030365</v>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>3.32675738108486</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <v>3.27531053965352</v>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>3.48735404580527</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>3.50360393623682</v>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>3.30751105261914</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="24" t="n">
+        <v>2.51578584695845</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>2.39797237384054</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>2.41440066890273</v>
+      </c>
+      <c r="K10" s="24" t="n">
+        <v>2.40382410812103</v>
+      </c>
+      <c r="L10" s="24" t="n">
+        <v>2.00279100091731</v>
+      </c>
+      <c r="M10" s="24" t="n">
+        <v>2.06940492348942</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="n">
+        <v>1.42351195835799</v>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1.36408855615695</v>
+      </c>
+      <c r="C11" s="72" t="n">
+        <v>1.38257654438951</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>1.11608421362703</v>
+      </c>
+      <c r="E11" s="20" t="n">
+        <v>1.32358370924502</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1.46816609269227</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="24" t="n">
+        <v>1.69330953953253</v>
+      </c>
+      <c r="I11" s="24" t="n">
+        <v>1.79534451088672</v>
+      </c>
+      <c r="J11" s="24" t="n">
+        <v>1.86197172042093</v>
+      </c>
+      <c r="K11" s="24" t="n">
+        <v>1.8964610136289</v>
+      </c>
+      <c r="L11" s="24" t="n">
+        <v>2.30113535304762</v>
+      </c>
+      <c r="M11" s="24" t="n">
+        <v>2.32582407878682</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>0.0282987317022973</v>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>0.0278213364358339</v>
+      </c>
+      <c r="C12" s="20" t="n">
+        <v>0.0274188857961863</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>0.0270020374264604</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>0.0264877273529931</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>0.0260061626724878</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <v>0.0477164356120757</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>0.0567682339466406</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>0.0508888200229023</v>
+      </c>
+      <c r="K12" s="24" t="n">
+        <v>0.0509257360928791</v>
+      </c>
+      <c r="L12" s="24" t="n">
+        <v>0.0533357592764625</v>
+      </c>
+      <c r="M12" s="24" t="n">
+        <v>0.0137875044699824</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>2.95936130620085</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>2.89173284772455</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>3.11495160151219</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>3.48735404580527</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>3.50360393623682</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>3.22555223692402</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <v>3.09551679737797</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>3.15472874224965</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>3.45944708726543</v>
+      </c>
+      <c r="K14" s="24" t="n">
+        <v>3.43301140429248</v>
+      </c>
+      <c r="L14" s="24" t="n">
+        <v>2.68883138937145</v>
+      </c>
+      <c r="M14" s="24" t="n">
+        <v>2.79664840454054</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>62.25870467256</v>
+      </c>
+      <c r="B15" s="20" t="n">
+        <v>61.646297627606</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>66.8747770246165</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>75.755421258443</v>
+      </c>
+      <c r="E15" s="20" t="n">
+        <v>72.1845543244584</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>67.1754472345314</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="24" t="n">
+        <v>71.6053387828086</v>
+      </c>
+      <c r="I15" s="24" t="n">
+        <v>72.6408924892665</v>
+      </c>
+      <c r="J15" s="24" t="n">
+        <v>80.8967688572267</v>
+      </c>
+      <c r="K15" s="24" t="n">
+        <v>79.8321810553684</v>
+      </c>
+      <c r="L15" s="24" t="n">
+        <v>62.4739172614886</v>
+      </c>
+      <c r="M15" s="24" t="n">
+        <v>63.6291852618416</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <v>95.5689655172414</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>92.7333333333333</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>93.4333333333333</v>
+      </c>
+      <c r="D17" s="72" t="n">
+        <v>92.2295081967213</v>
+      </c>
+      <c r="E17" s="72" t="n">
+        <v>95.4603174603175</v>
+      </c>
+      <c r="F17" s="72" t="n">
+        <v>96.1904761904762</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <v>69.8475352757926</v>
+      </c>
+      <c r="I17" s="24" t="n">
+        <v>69.5326809453471</v>
+      </c>
+      <c r="J17" s="24" t="n">
+        <v>69.1111930665683</v>
+      </c>
+      <c r="K17" s="24" t="n">
+        <v>69.1119361425654</v>
+      </c>
+      <c r="L17" s="24" t="n">
+        <v>68.3619859207114</v>
+      </c>
+      <c r="M17" s="24" t="n">
+        <v>67.6877052170741</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="24" t="n">
+        <v>13.176245210728</v>
+      </c>
+      <c r="I18" s="24" t="n">
+        <v>15.9441860465116</v>
+      </c>
+      <c r="J18" s="24" t="n">
+        <v>15.7344</v>
+      </c>
+      <c r="K18" s="24" t="n">
+        <v>15.4044368600683</v>
+      </c>
+      <c r="L18" s="24" t="n">
+        <v>7.91288888888889</v>
+      </c>
+      <c r="M18" s="24" t="n">
+        <v>9.23404255319149</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="72" t="n">
+        <v>19.672131147541</v>
+      </c>
+      <c r="B20" s="72" t="n">
+        <v>19.047619047619</v>
+      </c>
+      <c r="C20" s="72" t="n">
+        <v>19.047619047619</v>
+      </c>
+      <c r="D20" s="72" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E20" s="72" t="n">
+        <v>19.6969696969697</v>
+      </c>
+      <c r="F20" s="72" t="n">
+        <v>19.6969696969697</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="24" t="n">
+        <v>29.7275641025641</v>
+      </c>
+      <c r="I20" s="24" t="n">
+        <v>27.8171918825276</v>
+      </c>
+      <c r="J20" s="24" t="n">
+        <v>27.2194716412006</v>
+      </c>
+      <c r="K20" s="24" t="n">
+        <v>26.8709191361125</v>
+      </c>
+      <c r="L20" s="24" t="n">
+        <v>33.9414379886555</v>
+      </c>
+      <c r="M20" s="24" t="n">
+        <v>33.3585476550681</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="72" t="n">
+        <v>80.327868852459</v>
+      </c>
+      <c r="B21" s="72" t="n">
+        <v>80.952380952381</v>
+      </c>
+      <c r="C21" s="72" t="n">
+        <v>80.952380952381</v>
+      </c>
+      <c r="D21" s="72" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="E21" s="72" t="n">
+        <v>80.3030303030303</v>
+      </c>
+      <c r="F21" s="72" t="n">
+        <v>80.3030303030303</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="24" t="n">
+        <v>70.2724358974359</v>
+      </c>
+      <c r="I21" s="24" t="n">
+        <v>72.1828081174724</v>
+      </c>
+      <c r="J21" s="24" t="n">
+        <v>72.7805283587994</v>
+      </c>
+      <c r="K21" s="24" t="n">
+        <v>73.1290808638875</v>
+      </c>
+      <c r="L21" s="24" t="n">
+        <v>66.0585620113445</v>
+      </c>
+      <c r="M21" s="24" t="n">
+        <v>66.6414523449319</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="72" t="n">
+        <v>70.2295552367288</v>
+      </c>
+      <c r="B22" s="72" t="n">
+        <v>71.0916562444167</v>
+      </c>
+      <c r="C22" s="72" t="n">
+        <v>70.4912218478454</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>75.8968015550451</v>
+      </c>
+      <c r="E22" s="72" t="n">
+        <v>72.5806451612903</v>
+      </c>
+      <c r="F22" s="72" t="n">
+        <v>69.423929098966</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="24" t="n">
+        <v>59.394237116409</v>
+      </c>
+      <c r="I22" s="24" t="n">
+        <v>57.1855750414272</v>
+      </c>
+      <c r="J22" s="24" t="n">
+        <v>56.1751216772744</v>
+      </c>
+      <c r="K22" s="24" t="n">
+        <v>55.7321291364765</v>
+      </c>
+      <c r="L22" s="24" t="n">
+        <v>46.6479678238781</v>
+      </c>
+      <c r="M22" s="24" t="n">
+        <v>47.3924413609492</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="72" t="n">
+        <v>29.7704447632712</v>
+      </c>
+      <c r="B23" s="72" t="n">
+        <v>28.9083437555833</v>
+      </c>
+      <c r="C23" s="72" t="n">
+        <v>29.5087781521546</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>24.1031984449549</v>
+      </c>
+      <c r="E23" s="72" t="n">
+        <v>27.4193548387097</v>
+      </c>
+      <c r="F23" s="72" t="n">
+        <v>30.576070901034</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="24" t="n">
+        <v>40.605762883591</v>
+      </c>
+      <c r="I23" s="24" t="n">
+        <v>42.8144249585728</v>
+      </c>
+      <c r="J23" s="24" t="n">
+        <v>43.6613419859395</v>
+      </c>
+      <c r="K23" s="24" t="n">
+        <v>44.2678708635235</v>
+      </c>
+      <c r="L23" s="24" t="n">
+        <v>53.3520321761219</v>
+      </c>
+      <c r="M23" s="24" t="n">
+        <v>55.7279944257818</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="n">
+        <v>25.094175601275</v>
+      </c>
+      <c r="B25" s="20" t="n">
+        <v>42.8571428571429</v>
+      </c>
+      <c r="C25" s="72" t="n">
+        <v>31.6084289143772</v>
+      </c>
+      <c r="D25" s="72" t="n">
+        <v>32.5668700140779</v>
+      </c>
+      <c r="E25" s="72" t="n">
+        <v>34.8224513172967</v>
+      </c>
+      <c r="F25" s="72" t="n">
+        <v>33.4717810896653</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="24" t="n">
+        <v>29.5564848117173</v>
+      </c>
+      <c r="I25" s="24" t="n">
+        <v>29.43218983676</v>
+      </c>
+      <c r="J25" s="24" t="n">
+        <v>30.9667439551705</v>
+      </c>
+      <c r="K25" s="24" t="n">
+        <v>30.4521902967499</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>35.6934339554431</v>
+      </c>
+      <c r="M25" s="24" t="n">
+        <v>30.5810112925268</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="n">
+        <v>74.905824398725</v>
+      </c>
+      <c r="B26" s="20" t="n">
+        <v>57.1428571428571</v>
+      </c>
+      <c r="C26" s="72" t="n">
+        <v>68.3915710856228</v>
+      </c>
+      <c r="D26" s="72" t="n">
+        <v>67.4331299859221</v>
+      </c>
+      <c r="E26" s="72" t="n">
+        <v>65.1775486827033</v>
+      </c>
+      <c r="F26" s="72" t="n">
+        <v>66.5282189103347</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="24" t="n">
+        <v>70.4435151882827</v>
+      </c>
+      <c r="I26" s="24" t="n">
+        <v>70.56781016324</v>
+      </c>
+      <c r="J26" s="24" t="n">
+        <v>69.0332560448295</v>
+      </c>
+      <c r="K26" s="24" t="n">
+        <v>69.5478097032501</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>64.3065660445569</v>
+      </c>
+      <c r="M26" s="24" t="n">
+        <v>69.4189887074732</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="72" t="n">
+        <v>19.0184049079755</v>
+      </c>
+      <c r="D27" s="72" t="n">
+        <v>18.5828249648053</v>
+      </c>
+      <c r="E27" s="72" t="n">
+        <v>20.3436426116838</v>
+      </c>
+      <c r="F27" s="72" t="n">
+        <v>21.695577815783</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="24" t="n">
+        <v>18.1970504542763</v>
+      </c>
+      <c r="I27" s="24" t="n">
+        <v>20.4655150056911</v>
+      </c>
+      <c r="J27" s="24" t="n">
+        <v>23.3488240163856</v>
+      </c>
+      <c r="K27" s="24" t="n">
+        <v>22.4638315052823</v>
+      </c>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="72" t="n">
+        <v>34.0813464235624</v>
+      </c>
+      <c r="D28" s="72" t="n">
+        <v>32.8282828282828</v>
+      </c>
+      <c r="E28" s="72" t="n">
+        <v>36.5990990990991</v>
+      </c>
+      <c r="F28" s="72" t="n">
+        <v>36.5990990990991</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="24" t="n">
+        <v>46.5887442451183</v>
+      </c>
+      <c r="I28" s="24" t="n">
+        <v>45.8587067478616</v>
+      </c>
+      <c r="J28" s="24" t="n">
+        <v>49.1030059893773</v>
+      </c>
+      <c r="K28" s="24" t="n">
+        <v>50.9682927194572</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="72" t="n">
+        <v>65.9186535764376</v>
+      </c>
+      <c r="D29" s="72" t="n">
+        <v>67.1717171717172</v>
+      </c>
+      <c r="E29" s="72" t="n">
+        <v>63.4009009009009</v>
+      </c>
+      <c r="F29" s="72" t="n">
+        <v>63.4009009009009</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="24" t="n">
+        <v>53.4112557548817</v>
+      </c>
+      <c r="I29" s="24" t="n">
+        <v>54.1412932521384</v>
+      </c>
+      <c r="J29" s="24" t="n">
+        <v>50.8969940106227</v>
+      </c>
+      <c r="K29" s="24" t="n">
+        <v>49.0317072805428</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
+        <v>78.9046653144016</v>
+      </c>
+      <c r="B30" s="20" t="n">
+        <v>80.7871720116618</v>
+      </c>
+      <c r="C30" s="72" t="n">
+        <v>80.9815950920245</v>
+      </c>
+      <c r="D30" s="72" t="n">
+        <v>81.4171750351948</v>
+      </c>
+      <c r="E30" s="72" t="n">
+        <v>79.6563573883162</v>
+      </c>
+      <c r="F30" s="72" t="n">
+        <v>78.304422184217</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="24" t="n">
+        <v>81.8029495457237</v>
+      </c>
+      <c r="I30" s="24" t="n">
+        <v>79.5344849943089</v>
+      </c>
+      <c r="J30" s="24" t="n">
+        <v>76.6511759836144</v>
+      </c>
+      <c r="K30" s="24" t="n">
+        <v>77.5361684947177</v>
+      </c>
+      <c r="L30" s="24" t="n">
+        <v>68.5530299606851</v>
+      </c>
+      <c r="M30" s="24" t="n">
+        <v>67.0908455138484</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="n">
+        <v>21.1898641204554</v>
+      </c>
+      <c r="B31" s="20" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="C31" s="72" t="n">
+        <v>31.0276679841897</v>
+      </c>
+      <c r="D31" s="72" t="n">
+        <v>32.507204610951</v>
+      </c>
+      <c r="E31" s="72" t="n">
+        <v>34.3687086568881</v>
+      </c>
+      <c r="F31" s="72" t="n">
+        <v>32.6053042121685</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>25.7676619638727</v>
+      </c>
+      <c r="I31" s="24" t="n">
+        <v>25.2053801911145</v>
+      </c>
+      <c r="J31" s="24" t="n">
+        <v>25.4422313157</v>
+      </c>
+      <c r="K31" s="24" t="n">
+        <v>24.5082511401457</v>
+      </c>
+      <c r="L31" s="24" t="n">
+        <v>23.9787476681103</v>
+      </c>
+      <c r="M31" s="24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="n">
+        <v>78.8101358795446</v>
+      </c>
+      <c r="B32" s="20" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="C32" s="72" t="n">
+        <v>68.9723320158103</v>
+      </c>
+      <c r="D32" s="72" t="n">
+        <v>67.492795389049</v>
+      </c>
+      <c r="E32" s="72" t="n">
+        <v>65.6312913431119</v>
+      </c>
+      <c r="F32" s="72" t="n">
+        <v>67.3946957878315</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>74.2323380361273</v>
+      </c>
+      <c r="I32" s="24" t="n">
+        <v>74.7946198088855</v>
+      </c>
+      <c r="J32" s="24" t="n">
+        <v>74.5577686843</v>
+      </c>
+      <c r="K32" s="24" t="n">
+        <v>75.4917488598543</v>
+      </c>
+      <c r="L32" s="24" t="n">
+        <v>76.0212523318897</v>
+      </c>
+      <c r="M32" s="24" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="B34" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="C34" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="D34" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="E34" s="76" t="n">
+        <v>17189.1444336716</v>
+      </c>
+      <c r="F34" s="76" t="n">
+        <v>17071.5638895485</v>
+      </c>
+      <c r="G34" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="77" t="n">
+        <v>18182.5223031605</v>
+      </c>
+      <c r="I34" s="77" t="n">
+        <v>17657.4127659894</v>
+      </c>
+      <c r="J34" s="77" t="n">
+        <v>17859.06</v>
+      </c>
+      <c r="K34" s="77" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="L34" s="77" t="n">
+        <v>17584.9298958333</v>
+      </c>
+      <c r="M34" s="77" t="n">
+        <v>18000.6516568628</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="76" t="n">
+        <v>6427.9639137252</v>
+      </c>
+      <c r="B35" s="76" t="n">
+        <v>7652.25908173268</v>
+      </c>
+      <c r="C35" s="76" t="n">
+        <v>7633.57</v>
+      </c>
+      <c r="D35" s="76" t="n">
+        <v>7682.85</v>
+      </c>
+      <c r="E35" s="76" t="n">
+        <v>7855.88029829648</v>
+      </c>
+      <c r="F35" s="76" t="n">
+        <v>7872.23283519194</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="77" t="n">
+        <v>7715.58094823599</v>
+      </c>
+      <c r="I35" s="77" t="n">
+        <v>9866.24771820756</v>
+      </c>
+      <c r="J35" s="77" t="n">
+        <v>7263.89080954709</v>
+      </c>
+      <c r="K35" s="77" t="n">
+        <v>7633.57</v>
+      </c>
+      <c r="L35" s="77" t="n">
+        <v>8005.09239483693</v>
+      </c>
+      <c r="M35" s="77" t="n">
+        <v>6104.99358242032</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="72" t="n">
+        <v>38.9513077967449</v>
+      </c>
+      <c r="B36" s="72" t="n">
+        <v>46.3701263469396</v>
+      </c>
+      <c r="C36" s="72" t="n">
+        <v>46.2568767729254</v>
+      </c>
+      <c r="D36" s="72" t="n">
+        <v>46.5554970629561</v>
+      </c>
+      <c r="E36" s="72" t="n">
+        <v>45.7025672720958</v>
+      </c>
+      <c r="F36" s="72" t="n">
+        <v>46.1131322597307</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="24" t="n">
+        <v>42.4340518856114</v>
+      </c>
+      <c r="I36" s="24" t="n">
+        <v>55.875953340182</v>
+      </c>
+      <c r="J36" s="24" t="n">
+        <v>40.6734218348955</v>
+      </c>
+      <c r="K36" s="24" t="n">
+        <v>46.2568767729254</v>
+      </c>
+      <c r="L36" s="24" t="n">
+        <v>45.5224583905432</v>
+      </c>
+      <c r="M36" s="24" t="n">
+        <v>33.9154031687114</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="B38" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="C38" s="76" t="n">
+        <v>16000.5078515625</v>
+      </c>
+      <c r="D38" s="76" t="n">
+        <v>16502.5625</v>
+      </c>
+      <c r="E38" s="76" t="n">
+        <v>17189.1444336716</v>
+      </c>
+      <c r="F38" s="76" t="n">
+        <v>17071.5638895485</v>
+      </c>
+      <c r="G38" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="77" t="n">
+        <v>19184.0741652756</v>
+      </c>
+      <c r="I38" s="77" t="n">
+        <v>18650.2343319657</v>
+      </c>
+      <c r="J38" s="77" t="n">
+        <v>19129.1761605263</v>
+      </c>
+      <c r="K38" s="77" t="n">
+        <v>17224.5435069444</v>
+      </c>
+      <c r="L38" s="77" t="n">
+        <v>19154.0086519608</v>
+      </c>
+      <c r="M38" s="77" t="n">
+        <v>18931.8580625</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="76" t="n">
+        <v>6427.9639137252</v>
+      </c>
+      <c r="B39" s="76" t="n">
+        <v>7652.25908173268</v>
+      </c>
+      <c r="C39" s="76" t="n">
+        <v>6822.43370292686</v>
+      </c>
+      <c r="D39" s="76" t="n">
+        <v>7682.85</v>
+      </c>
+      <c r="E39" s="76" t="n">
+        <v>7855.88029829648</v>
+      </c>
+      <c r="F39" s="76" t="n">
+        <v>7872.23283519194</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="77" t="n">
+        <v>7403.14850209318</v>
+      </c>
+      <c r="I39" s="77" t="n">
+        <v>7023.83794753121</v>
+      </c>
+      <c r="J39" s="77" t="n">
+        <v>6980.49089630117</v>
+      </c>
+      <c r="K39" s="77" t="n">
+        <v>6205.08592151654</v>
+      </c>
+      <c r="L39" s="77" t="n">
+        <v>6574.89970623487</v>
+      </c>
+      <c r="M39" s="77" t="n">
+        <v>5882.82795742032</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="72" t="n">
+        <v>38.9513077967449</v>
+      </c>
+      <c r="B40" s="72" t="n">
+        <v>46.3701263469396</v>
+      </c>
+      <c r="C40" s="72" t="n">
+        <v>42.6388572551504</v>
+      </c>
+      <c r="D40" s="72" t="n">
+        <v>46.5554970629561</v>
+      </c>
+      <c r="E40" s="72" t="n">
+        <v>45.7025672720958</v>
+      </c>
+      <c r="F40" s="72" t="n">
+        <v>46.1131322597307</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="24" t="n">
+        <v>38.590074445674</v>
+      </c>
+      <c r="I40" s="24" t="n">
+        <v>37.6608562793908</v>
+      </c>
+      <c r="J40" s="24" t="n">
+        <v>36.491330508554</v>
+      </c>
+      <c r="K40" s="24" t="n">
+        <v>36.0246755974393</v>
+      </c>
+      <c r="L40" s="24" t="n">
+        <v>34.326494394487</v>
+      </c>
+      <c r="M40" s="24" t="n">
+        <v>31.073695661563</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
